--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.24320000000001</v>
+        <v>-12.8612</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.741599999999999</v>
+        <v>4.576899999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.71260000000001</v>
+        <v>-12.2648</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.599799999999989</v>
+        <v>-8.036899999999992</v>
       </c>
     </row>
     <row r="25">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.88689999999999</v>
+        <v>-13.7929</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.701199999999999</v>
+        <v>6.786499999999995</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.16060000000001</v>
+        <v>-11.52660000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.1549</v>
+        <v>-12.04500000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.372400000000008</v>
+        <v>9.12310000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,13 +964,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.538400000000005</v>
+        <v>6.182700000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.627600000000005</v>
+        <v>-7.611400000000006</v>
       </c>
     </row>
     <row r="39">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.3694</v>
+        <v>-12.3714</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.021000000000006</v>
+        <v>6.276600000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.759000000000004</v>
+        <v>-7.687700000000004</v>
       </c>
     </row>
     <row r="53">
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.892000000000005</v>
+        <v>4.999000000000004</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.93589999999999</v>
+        <v>-13.94559999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.393</v>
+        <v>5.626099999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.532999999999995</v>
+        <v>5.517899999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.434999999999995</v>
+        <v>5.353799999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.127400000000006</v>
+        <v>5.138500000000006</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.302100000000001</v>
+        <v>-7.565400000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.117099999999999</v>
+        <v>-9.079099999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.687999999999999</v>
+        <v>-8.846500000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.616700000000002</v>
+        <v>-8.619599999999997</v>
       </c>
     </row>
     <row r="87">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>4.861299999999995</v>
+        <v>4.748599999999993</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.440699999999994</v>
+        <v>-8.284999999999997</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.52</v>
+        <v>-11.5488</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.179900000000004</v>
+        <v>6.085800000000003</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.25350000000001</v>
+        <v>-12.41690000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.99449999999999</v>
+        <v>-12.91590000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.844200000000003</v>
+        <v>-7.787900000000004</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.756500000000003</v>
+        <v>9.841700000000005</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
